--- a/Data/EC/NIT-8305117864.xlsx
+++ b/Data/EC/NIT-8305117864.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{949E6706-491E-4E4B-B21B-3A9FB738A435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9770EDBE-10D5-435A-BED1-0F36770B6D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1807C43D-32B6-46F2-90D7-C168E89A0359}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B3B55DD0-0DA0-40F8-B5B1-3E493178F924}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,6 +71,186 @@
     <t>WADID DE JESUS BENITEZ CALVO</t>
   </si>
   <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
     <t>1607</t>
   </si>
   <si>
@@ -78,186 +258,6 @@
   </si>
   <si>
     <t>DEIWIS DIMAS LOPEZ VILLA</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -671,7 +671,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{189AC701-8536-0858-CD63-0F36ED811EC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77E80132-2FC7-73BF-5933-3BC984D3369C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1022,7 +1022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD95F771-5D97-4F8B-95ED-8B1D80CF8BDC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A813DB10-A9EC-4D56-9E28-FB120AF944FD}">
   <dimension ref="B2:J143"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1200,7 +1200,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>24640</v>
+        <v>26041</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1214,19 +1214,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>34000</v>
+        <v>31249</v>
       </c>
       <c r="G17" s="18">
-        <v>850000</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1243,10 +1243,10 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1260,19 +1260,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>34000</v>
+        <v>31249</v>
       </c>
       <c r="G19" s="18">
-        <v>850000</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1283,19 +1283,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>34000</v>
+        <v>31249</v>
       </c>
       <c r="G20" s="18">
-        <v>850000</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1312,10 +1312,10 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1329,19 +1329,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>34000</v>
+        <v>31249</v>
       </c>
       <c r="G22" s="18">
-        <v>850000</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1358,10 +1358,10 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1375,19 +1375,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>34000</v>
+        <v>31249</v>
       </c>
       <c r="G24" s="18">
-        <v>850000</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1404,10 +1404,10 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1421,19 +1421,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>34000</v>
+        <v>31249</v>
       </c>
       <c r="G26" s="18">
-        <v>850000</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1450,10 +1450,10 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1473,10 +1473,10 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1490,19 +1490,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>34000</v>
+        <v>31249</v>
       </c>
       <c r="G29" s="18">
-        <v>850000</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1513,19 +1513,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>34000</v>
+        <v>31249</v>
       </c>
       <c r="G30" s="18">
-        <v>850000</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1542,10 +1542,10 @@
         <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1565,10 +1565,10 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1582,19 +1582,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>34000</v>
+        <v>31249</v>
       </c>
       <c r="G33" s="18">
-        <v>850000</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1605,19 +1605,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>34000</v>
+        <v>31249</v>
       </c>
       <c r="G34" s="18">
-        <v>850000</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1634,10 +1634,10 @@
         <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1657,10 +1657,10 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1674,19 +1674,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>34000</v>
+        <v>31249</v>
       </c>
       <c r="G37" s="18">
-        <v>850000</v>
+        <v>781242</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1703,10 +1703,10 @@
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1720,19 +1720,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>34000</v>
+        <v>31249</v>
       </c>
       <c r="G39" s="18">
-        <v>850000</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1749,10 +1749,10 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1766,19 +1766,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>34000</v>
+        <v>31249</v>
       </c>
       <c r="G41" s="18">
-        <v>850000</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1789,19 +1789,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
-        <v>34000</v>
+        <v>31249</v>
       </c>
       <c r="G42" s="18">
-        <v>850000</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1818,10 +1818,10 @@
         <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G43" s="18">
         <v>781242</v>
@@ -1835,19 +1835,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
-        <v>34000</v>
+        <v>31249</v>
       </c>
       <c r="G44" s="18">
-        <v>850000</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1864,10 +1864,10 @@
         <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
         <v>781242</v>
@@ -1881,19 +1881,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
-        <v>34000</v>
+        <v>31249</v>
       </c>
       <c r="G46" s="18">
-        <v>850000</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1910,10 +1910,10 @@
         <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F47" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
         <v>781242</v>
@@ -1933,10 +1933,10 @@
         <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F48" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
         <v>781242</v>
@@ -1950,19 +1950,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F49" s="18">
-        <v>34000</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
-        <v>850000</v>
+        <v>781242</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1979,10 +1979,10 @@
         <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F50" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G50" s="18">
         <v>781242</v>
@@ -1996,19 +1996,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F51" s="18">
-        <v>34000</v>
+        <v>24640</v>
       </c>
       <c r="G51" s="18">
-        <v>850000</v>
+        <v>781242</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2019,19 +2019,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F52" s="18">
-        <v>34000</v>
+        <v>24640</v>
       </c>
       <c r="G52" s="18">
-        <v>850000</v>
+        <v>781242</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2048,7 +2048,7 @@
         <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F53" s="18">
         <v>24640</v>
@@ -2071,7 +2071,7 @@
         <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F54" s="18">
         <v>24640</v>
@@ -2088,19 +2088,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F55" s="18">
-        <v>34000</v>
+        <v>24640</v>
       </c>
       <c r="G55" s="18">
-        <v>850000</v>
+        <v>781242</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2111,19 +2111,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F56" s="18">
-        <v>34000</v>
+        <v>24640</v>
       </c>
       <c r="G56" s="18">
-        <v>850000</v>
+        <v>781242</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2140,7 +2140,7 @@
         <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F57" s="18">
         <v>24640</v>
@@ -2163,7 +2163,7 @@
         <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F58" s="18">
         <v>24640</v>
@@ -2180,19 +2180,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="F59" s="18">
-        <v>34000</v>
+        <v>24640</v>
       </c>
       <c r="G59" s="18">
-        <v>850000</v>
+        <v>781242</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2209,7 +2209,7 @@
         <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="F60" s="18">
         <v>24640</v>
@@ -2226,19 +2226,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="F61" s="18">
-        <v>34000</v>
+        <v>24640</v>
       </c>
       <c r="G61" s="18">
-        <v>850000</v>
+        <v>781242</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2255,7 +2255,7 @@
         <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="F62" s="18">
         <v>24640</v>
@@ -2272,19 +2272,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F63" s="18">
-        <v>34000</v>
+        <v>24640</v>
       </c>
       <c r="G63" s="18">
-        <v>850000</v>
+        <v>781242</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2301,7 +2301,7 @@
         <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="F64" s="18">
         <v>24640</v>
@@ -2318,19 +2318,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="F65" s="18">
-        <v>34000</v>
+        <v>24640</v>
       </c>
       <c r="G65" s="18">
-        <v>850000</v>
+        <v>781242</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2347,7 +2347,7 @@
         <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="F66" s="18">
         <v>24640</v>
@@ -2364,19 +2364,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="F67" s="18">
-        <v>34000</v>
+        <v>24640</v>
       </c>
       <c r="G67" s="18">
-        <v>850000</v>
+        <v>781242</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2387,19 +2387,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="F68" s="18">
-        <v>34000</v>
+        <v>24640</v>
       </c>
       <c r="G68" s="18">
-        <v>850000</v>
+        <v>781242</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2416,10 +2416,10 @@
         <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="F69" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G69" s="18">
         <v>781242</v>
@@ -2433,19 +2433,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="F70" s="18">
-        <v>34000</v>
+        <v>24640</v>
       </c>
       <c r="G70" s="18">
-        <v>850000</v>
+        <v>781242</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2462,10 +2462,10 @@
         <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="F71" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G71" s="18">
         <v>781242</v>
@@ -2479,19 +2479,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="F72" s="18">
-        <v>34000</v>
+        <v>24640</v>
       </c>
       <c r="G72" s="18">
-        <v>850000</v>
+        <v>781242</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2508,10 +2508,10 @@
         <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="F73" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G73" s="18">
         <v>781242</v>
@@ -2531,10 +2531,10 @@
         <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="F74" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G74" s="18">
         <v>781242</v>
@@ -2548,19 +2548,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="F75" s="18">
-        <v>34000</v>
+        <v>24640</v>
       </c>
       <c r="G75" s="18">
-        <v>850000</v>
+        <v>781242</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2577,10 +2577,10 @@
         <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="F76" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G76" s="18">
         <v>781242</v>
@@ -2594,16 +2594,16 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F77" s="18">
-        <v>34000</v>
+        <v>28333</v>
       </c>
       <c r="G77" s="18">
         <v>850000</v>
@@ -2617,13 +2617,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E78" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E78" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="F78" s="18">
         <v>34000</v>
@@ -2640,19 +2640,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="F79" s="18">
-        <v>31249</v>
+        <v>34000</v>
       </c>
       <c r="G79" s="18">
-        <v>781242</v>
+        <v>850000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2663,19 +2663,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="F80" s="18">
-        <v>31249</v>
+        <v>34000</v>
       </c>
       <c r="G80" s="18">
-        <v>781242</v>
+        <v>850000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2686,13 +2686,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F81" s="18">
         <v>34000</v>
@@ -2709,13 +2709,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="F82" s="18">
         <v>34000</v>
@@ -2732,19 +2732,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F83" s="18">
-        <v>31249</v>
+        <v>34000</v>
       </c>
       <c r="G83" s="18">
-        <v>781242</v>
+        <v>850000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2755,19 +2755,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F84" s="18">
-        <v>31249</v>
+        <v>34000</v>
       </c>
       <c r="G84" s="18">
-        <v>781242</v>
+        <v>850000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2778,13 +2778,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="F85" s="18">
         <v>34000</v>
@@ -2801,13 +2801,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="F86" s="18">
         <v>34000</v>
@@ -2824,19 +2824,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="F87" s="18">
-        <v>31249</v>
+        <v>34000</v>
       </c>
       <c r="G87" s="18">
-        <v>781242</v>
+        <v>850000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2847,19 +2847,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="F88" s="18">
-        <v>31249</v>
+        <v>34000</v>
       </c>
       <c r="G88" s="18">
-        <v>781242</v>
+        <v>850000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2870,13 +2870,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="F89" s="18">
         <v>34000</v>
@@ -2893,13 +2893,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F90" s="18">
         <v>34000</v>
@@ -2916,19 +2916,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F91" s="18">
-        <v>31249</v>
+        <v>34000</v>
       </c>
       <c r="G91" s="18">
-        <v>781242</v>
+        <v>850000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2939,13 +2939,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="F92" s="18">
         <v>34000</v>
@@ -2962,19 +2962,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F93" s="18">
-        <v>31249</v>
+        <v>34000</v>
       </c>
       <c r="G93" s="18">
-        <v>781242</v>
+        <v>850000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -2985,13 +2985,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F94" s="18">
         <v>34000</v>
@@ -3008,19 +3008,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="F95" s="18">
-        <v>31249</v>
+        <v>34000</v>
       </c>
       <c r="G95" s="18">
-        <v>781242</v>
+        <v>850000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3031,19 +3031,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="F96" s="18">
-        <v>31249</v>
+        <v>34000</v>
       </c>
       <c r="G96" s="18">
-        <v>781242</v>
+        <v>850000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3054,13 +3054,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="F97" s="18">
         <v>34000</v>
@@ -3077,19 +3077,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="F98" s="18">
-        <v>31249</v>
+        <v>34000</v>
       </c>
       <c r="G98" s="18">
-        <v>781242</v>
+        <v>850000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3100,13 +3100,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="F99" s="18">
         <v>34000</v>
@@ -3123,19 +3123,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="F100" s="18">
-        <v>31249</v>
+        <v>34000</v>
       </c>
       <c r="G100" s="18">
-        <v>781242</v>
+        <v>850000</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3146,13 +3146,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F101" s="18">
         <v>34000</v>
@@ -3169,19 +3169,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="F102" s="18">
-        <v>31249</v>
+        <v>34000</v>
       </c>
       <c r="G102" s="18">
-        <v>781242</v>
+        <v>850000</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3192,13 +3192,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="F103" s="18">
         <v>34000</v>
@@ -3215,19 +3215,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="F104" s="18">
-        <v>31249</v>
+        <v>34000</v>
       </c>
       <c r="G104" s="18">
-        <v>781242</v>
+        <v>850000</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3238,13 +3238,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F105" s="18">
         <v>34000</v>
@@ -3261,19 +3261,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="F106" s="18">
-        <v>31249</v>
+        <v>34000</v>
       </c>
       <c r="G106" s="18">
-        <v>781242</v>
+        <v>850000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3284,13 +3284,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="F107" s="18">
         <v>34000</v>
@@ -3307,13 +3307,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F108" s="18">
         <v>34000</v>
@@ -3330,19 +3330,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F109" s="18">
-        <v>31249</v>
+        <v>34000</v>
       </c>
       <c r="G109" s="18">
-        <v>781242</v>
+        <v>850000</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3353,13 +3353,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F110" s="18">
         <v>34000</v>
@@ -3376,19 +3376,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F111" s="18">
-        <v>31249</v>
+        <v>34000</v>
       </c>
       <c r="G111" s="18">
-        <v>781242</v>
+        <v>850000</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3399,19 +3399,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F112" s="18">
-        <v>31249</v>
+        <v>34000</v>
       </c>
       <c r="G112" s="18">
-        <v>781242</v>
+        <v>850000</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3422,13 +3422,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F113" s="18">
         <v>34000</v>
@@ -3445,19 +3445,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F114" s="18">
-        <v>31249</v>
+        <v>34000</v>
       </c>
       <c r="G114" s="18">
-        <v>781242</v>
+        <v>850000</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3468,13 +3468,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="F115" s="18">
         <v>34000</v>
@@ -3491,13 +3491,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F116" s="18">
         <v>34000</v>
@@ -3514,19 +3514,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F117" s="18">
-        <v>31249</v>
+        <v>34000</v>
       </c>
       <c r="G117" s="18">
-        <v>781242</v>
+        <v>850000</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3537,19 +3537,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F118" s="18">
-        <v>31249</v>
+        <v>34000</v>
       </c>
       <c r="G118" s="18">
-        <v>781242</v>
+        <v>850000</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3560,13 +3560,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F119" s="18">
         <v>34000</v>
@@ -3583,19 +3583,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F120" s="18">
-        <v>31249</v>
+        <v>34000</v>
       </c>
       <c r="G120" s="18">
-        <v>781242</v>
+        <v>850000</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3606,13 +3606,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F121" s="18">
         <v>34000</v>
@@ -3629,19 +3629,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F122" s="18">
-        <v>31249</v>
+        <v>34000</v>
       </c>
       <c r="G122" s="18">
-        <v>781242</v>
+        <v>850000</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3652,13 +3652,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F123" s="18">
         <v>34000</v>
@@ -3675,13 +3675,13 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F124" s="18">
         <v>34000</v>
@@ -3698,19 +3698,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F125" s="18">
-        <v>31249</v>
+        <v>34000</v>
       </c>
       <c r="G125" s="18">
-        <v>781242</v>
+        <v>850000</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3721,19 +3721,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F126" s="18">
-        <v>31249</v>
+        <v>34000</v>
       </c>
       <c r="G126" s="18">
-        <v>781242</v>
+        <v>850000</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3744,13 +3744,13 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F127" s="18">
         <v>34000</v>
@@ -3767,13 +3767,13 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F128" s="18">
         <v>34000</v>
@@ -3790,19 +3790,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F129" s="18">
-        <v>31249</v>
+        <v>34000</v>
       </c>
       <c r="G129" s="18">
-        <v>781242</v>
+        <v>850000</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3813,13 +3813,13 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F130" s="18">
         <v>34000</v>
@@ -3836,19 +3836,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F131" s="18">
-        <v>31249</v>
+        <v>34000</v>
       </c>
       <c r="G131" s="18">
-        <v>781242</v>
+        <v>850000</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -3859,13 +3859,13 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F132" s="18">
         <v>34000</v>
@@ -3882,19 +3882,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F133" s="18">
-        <v>31249</v>
+        <v>34000</v>
       </c>
       <c r="G133" s="18">
-        <v>781242</v>
+        <v>850000</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -3905,19 +3905,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F134" s="18">
-        <v>31249</v>
+        <v>34000</v>
       </c>
       <c r="G134" s="18">
-        <v>781242</v>
+        <v>850000</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -3928,13 +3928,13 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F135" s="18">
         <v>34000</v>
@@ -3951,16 +3951,16 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F136" s="18">
-        <v>28333</v>
+        <v>34000</v>
       </c>
       <c r="G136" s="18">
         <v>850000</v>
@@ -3974,19 +3974,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="22" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D137" s="23" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E137" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F137" s="24">
-        <v>26041</v>
+        <v>34000</v>
       </c>
       <c r="G137" s="24">
-        <v>781242</v>
+        <v>850000</v>
       </c>
       <c r="H137" s="25"/>
       <c r="I137" s="25"/>
